--- a/ocms/target/test-classes/TestData/AgentSummaryReportData.xlsx
+++ b/ocms/target/test-classes/TestData/AgentSummaryReportData.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E09E29C-5E0C-4438-9FC3-B096CBC5CD8A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22890" windowHeight="8040" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Show" sheetId="1" r:id="rId1"/>
     <sheet name="ShowDateRange" sheetId="4" r:id="rId2"/>
     <sheet name="ShowInNewPage" sheetId="2" r:id="rId3"/>
     <sheet name="ShowInNewPageDateRange" sheetId="5" r:id="rId4"/>
-    <sheet name="ExportReport" sheetId="3" r:id="rId5"/>
-    <sheet name="ExportReportDateRange" sheetId="6" r:id="rId6"/>
+    <sheet name="ExportReportDateRange" sheetId="6" r:id="rId5"/>
+    <sheet name="ExportReport" sheetId="3" r:id="rId6"/>
+    <sheet name="AdvanceSearch" sheetId="7" r:id="rId7"/>
+    <sheet name="Queries" sheetId="8" r:id="rId8"/>
+    <sheet name="Quer" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="162913" calcMode="manual"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:N1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="28">
   <si>
     <t>Report Channel</t>
   </si>
@@ -59,11 +62,87 @@
   <si>
     <t>OCM Agent Summary Report</t>
   </si>
+  <si>
+    <t>Agent Name</t>
+  </si>
+  <si>
+    <t>Is  not equal to</t>
+  </si>
+  <si>
+    <t>Palak garg</t>
+  </si>
+  <si>
+    <t>Contains</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Starts with </t>
+  </si>
+  <si>
+    <t>Column Name</t>
+  </si>
+  <si>
+    <t>Column Type</t>
+  </si>
+  <si>
+    <t>Search String</t>
+  </si>
+  <si>
+    <t>Is equal to</t>
+  </si>
+  <si>
+    <t>Advanced Search</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>mariyam kasheera</t>
+  </si>
+  <si>
+    <t>ara</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>Amitha Maithry</t>
+  </si>
+  <si>
+    <t>Query</t>
+  </si>
+  <si>
+    <t>SELECT M.[AgentID] ,A.[AgentName],SUM([TotalInteraction]) [TotalInteraction],SUM(TotalVoice) TotalVoice,SUM(TotalChat) TotalChat,SUM(TotalSM) TotalSM ,   SUM([TotalAudioIP]) [TotalAudioIP],
+SUM([TotalVideoIP]) [TotalVideoIP],SUM(TotalSMS) TotalSMS,SUM(isnull(TotalFax,0)) TotalFax,SUM(TotalEmail) TotalEmail,    
+[dbo].[SECONDSTOhhmmss](SUM ( DATEPART(hh,TotalStaffedTime) * 3600 +DATEPART(mi, TotalStaffedTime) * 60 + DATEPART(ss,TotalStaffedTime))) as [TotalStaffedTime] ,     
+[dbo].[SECONDSTOhhmmss](SUM ( DATEPART(hh,TotalInteractionTime) * 3600 +DATEPART(mi, TotalInteractionTime) * 60 + DATEPART(ss,TotalInteractionTime)))as [TotalInteractionTime] ,   
+[dbo].[SECONDSTOhhmmss](ISNULL(SUM ( DATEPART(hh,TotalInteractionTime) * 3600 +DATEPART(mi, TotalInteractionTime) * 60 + DATEPART(ss,TotalInteractionTime))/nullif(SUM([TotalInteraction]),0),0))as [AvgInteractionTime] ,
+[dbo].[SECONDSTOhhmmss](SUM ( DATEPART(hh,TotalACWTime) * 3600 +DATEPART(mi, TotalACWTime) * 60 + DATEPART(ss,TotalACWTime)))as [TotalACWTime] ,   
+[dbo].[SECONDSTOhhmmss](SUM ( DATEPART(hh,TotalAuxTime) * 3600 +DATEPART(mi, TotalAuxTime) * 60 + DATEPART(ss,TotalAuxTime))) AS [TotalAuxTime],      
+[dbo].[SECONDSTOhhmmss](SUM ( DATEPART(hh,[TotalVoiceTime]) * 3600 +DATEPART(mi, [TotalVoiceTime]) * 60 + DATEPART(ss,[TotalVoiceTime])))as [TotalVoiceTime] ,  
+[dbo].[SECONDSTOhhmmss](ISNULL(SUM ( DATEPART(hh,[TotalVoiceTime]) * 3600 +DATEPART(mi, [TotalVoiceTime]) * 60 + DATEPART(ss,[TotalVoiceTime]))/nullif(SUM(TotalVoice),0),0))as [AvgVoiceTime] ,    
+[dbo].[SECONDSTOhhmmss](SUM ( DATEPART(hh,[TotalChatTime]) * 3600 +DATEPART(mi, [TotalChatTime]) * 60 + DATEPART(ss,[TotalChatTime])))as [TotalChatTime] ,  
+[dbo].[SECONDSTOhhmmss](ISNULL(SUM ( DATEPART(hh,[TotalChatTime]) * 3600 +DATEPART(mi, [TotalChatTime]) * 60 + DATEPART(ss,[TotalChatTime]))/nullif(SUM(TotalChat),0),0))as [AvgChatTime] ,     
+[dbo].[SECONDSTOhhmmss](SUM ( DATEPART(hh,[TotalSMTime]) * 3600 +DATEPART(mi, [TotalSMTime]) * 60 + DATEPART(ss,[TotalSMTime])))as [TotalSMTime] ,  
+[dbo].[SECONDSTOhhmmss](ISNULL(SUM ( DATEPART(hh,[TotalSMTime]) * 3600 +DATEPART(mi, [TotalSMTime]) * 60 + DATEPART(ss,[TotalSMTime]))/nullif(SUM(TotalSM),0),0))as [AvgSMTime] ,  
+[dbo].[SECONDSTOhhmmss](SUM ( DATEPART(hh,[TotalSMSTime]) * 3600 +DATEPART(mi, [TotalSMSTime]) * 60 + DATEPART(ss,[TotalSMSTime])))as [TotalSMSTime] ,   
+[dbo].[SECONDSTOhhmmss](SUM ( DATEPART(hh,[TotalFaxTime]) * 3600 +DATEPART(mi, [TotalFaxTime]) * 60 + DATEPART(ss,[TotalFaxTime])))as [TotalFaxTime] ,  
+[dbo].[SECONDSTOhhmmss](ISNULL(SUM ( DATEPART(hh,[TotalSMSTime]) * 3600 +DATEPART(mi, [TotalSMSTime]) * 60 + DATEPART(ss,[TotalSMSTime]))/nullif(SUM(TotalSMS),0),0))as [AvgSMSTime] ,  
+[dbo].[SECONDSTOhhmmss](ISNULL(SUM ( DATEPART(hh,[TotalFaxTime]) * 3600 +DATEPART(mi, [TotalFaxTime]) * 60 + DATEPART(ss,[TotalFaxTime]))/nullif(SUM(TotalFax),0),0))as [AvgFaxTime] ,    
+[dbo].[SECONDSTOhhmmss](SUM ( DATEPART(hh,[TotalEmailTime]) * 3600 +DATEPART(mi, [TotalEmailTime]) * 60 + DATEPART(ss,[TotalEmailTime])))as [TotalEmailTime] ,   
+[dbo].[SECONDSTOhhmmss](ISNULL(SUM ( DATEPART(hh,[TotalEmailTime]) * 3600 +DATEPART(mi, [TotalEmailTime]) * 60 + DATEPART(ss,[TotalEmailTime]))/nullif(SUM(TotalEmail),0),0))as [AvgEmailTime] ,   
+[dbo].[SECONDSTOhhmmss](SUM ( DATEPART(hh,[TotalAudioIPTime]) * 3600 +DATEPART(mi, [TotalAudioIPTime]) * 60 + DATEPART(ss,[TotalAudioIPTime])))as [TotalAudioIPTime] ,  
+[dbo].[SECONDSTOhhmmss](ISNULL(SUM ( DATEPART(hh,[TotalAudioIPTime]) * 3600 +DATEPART(mi, [TotalAudioIPTime]) * 60 + DATEPART(ss,[TotalAudioIPTime]))/nullif(SUM([TotalAudioIP]),0),0))as [AvgAudioIPTime] ,    
+[dbo].[SECONDSTOhhmmss](SUM ( DATEPART(hh,[TotalVideoIPTime]) * 3600 +DATEPART(mi, [TotalVideoIPTime]) * 60 + DATEPART(ss,[TotalVideoIPTime])))as [TotalVideoIPTime] ,   
+[dbo].[SECONDSTOhhmmss](ISNULL(SUM ( DATEPART(hh,[TotalVideoIPTime]) * 3600 +DATEPART(mi, [TotalVideoIPTime]) * 60 + DATEPART(ss,[TotalVideoIPTime]))/nullif(SUM([TotalVideoIP]),0),0))as [AvgVideoIPTime] ,  
+SUM(TotalExtIn)as [TotalExtIn] ,SUM(TotalExtOut) as [TotalExtOut] ,SUM(TotalTransferIn) as [TotalTransferIn] ,SUM(TotalTransferOut) as [TotalTransferOut] ,SUM(TotalConferenceIn) as [TotalConferenceIn] , 
+SUM(TotalConferenceOut) as [TotalConferenceOut] ,   A.TeamName,A.SupervisorName FROM [dbo].[OCM_AgentSummaryReport] M WITH(NOLOCK)   INNER JOIN fn_AgentHierarchy('na','1','1') A  ON A.AgentId=M.[AgentID]   
+WHERE [ReportDateTime] &gt;='2020-01-23 00:00:00'  AND [ReportDateTime]&lt;='2020-01-29 23:59:00'       GROUP BY M.[AgentID],A.[AgentName],A.TeamName,A.SupervisorName;</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -93,9 +172,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -375,7 +457,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -425,7 +507,210 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{702A1EAB-F881-4B86-A3E3-081C46011C84}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" customWidth="1"/>
+    <col min="8" max="8" width="21.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -479,9 +764,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE176447-87D7-4EDC-896D-9D23F07DF512}">
-  <dimension ref="A1:D2"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -489,57 +774,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C60BEED6-9E0D-4C15-B8C6-0F6124EFA13A}">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
     <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.42578125" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -583,12 +819,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ABD6B37-7362-47B2-8F62-99134BB2493A}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F20" sqref="A17:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -632,23 +868,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E6DA6B1-CCD8-43EF-9A87-EEA417F7CC00}">
-  <dimension ref="A1:E2"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="44.7109375" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
+    <col min="7" max="8" width="13.28515625" customWidth="1"/>
+    <col min="9" max="9" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -664,8 +904,20 @@
       <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -681,8 +933,97 @@
       <c r="E2" t="s">
         <v>5</v>
       </c>
-    </row>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="66.5703125" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1"/>
+    <col min="6" max="6" width="66.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ocms/target/test-classes/TestData/AgentSummaryReportData.xlsx
+++ b/ocms/target/test-classes/TestData/AgentSummaryReportData.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{DF89DD95-085B-41C9-A4C6-65FC5F5161AA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22890" windowHeight="8040" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="19460" windowHeight="11060" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Show" sheetId="1" r:id="rId1"/>
@@ -15,10 +16,10 @@
     <sheet name="ExportReport" sheetId="3" r:id="rId6"/>
     <sheet name="AdvanceSearch" sheetId="7" r:id="rId7"/>
     <sheet name="Queries" sheetId="8" r:id="rId8"/>
-    <sheet name="Quer" sheetId="9" r:id="rId9"/>
+    <sheet name="Invalid" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:N1"/>
+  <oleSize ref="B1:M7"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="28">
   <si>
     <t>Report Channel</t>
   </si>
@@ -142,7 +143,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -457,22 +458,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="41" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -486,7 +487,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -507,25 +508,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.54296875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" customWidth="1"/>
-    <col min="8" max="8" width="21.28515625" customWidth="1"/>
+    <col min="7" max="7" width="15.81640625" customWidth="1"/>
+    <col min="8" max="8" width="21.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -551,7 +552,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -577,7 +578,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -603,7 +604,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -629,7 +630,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -661,22 +662,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -690,7 +691,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -710,22 +711,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -742,7 +743,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -765,22 +766,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.42578125" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.453125" customWidth="1"/>
+    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -797,7 +798,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -820,22 +821,22 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="F20" sqref="A17:F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -849,7 +850,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -869,26 +870,26 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="2" max="2" width="44.7109375" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="1" max="1" width="18.7265625" customWidth="1"/>
+    <col min="2" max="2" width="44.7265625" customWidth="1"/>
+    <col min="3" max="3" width="22.1796875" customWidth="1"/>
+    <col min="4" max="4" width="15.1796875" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" customWidth="1"/>
-    <col min="7" max="8" width="13.28515625" customWidth="1"/>
-    <col min="9" max="9" width="23.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17.1796875" customWidth="1"/>
+    <col min="7" max="8" width="13.26953125" customWidth="1"/>
+    <col min="9" max="9" width="23.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -917,7 +918,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -953,24 +954,85 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="66.54296875" customWidth="1"/>
+    <col min="2" max="2" width="30.7265625" customWidth="1"/>
+    <col min="3" max="3" width="14.7265625" customWidth="1"/>
+    <col min="4" max="4" width="15.1796875" customWidth="1"/>
+    <col min="5" max="5" width="12.26953125" customWidth="1"/>
+    <col min="6" max="6" width="66.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="66.5703125" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1"/>
-    <col min="6" max="6" width="66.140625" customWidth="1"/>
+    <col min="1" max="1" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -981,49 +1043,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" customFormat="1" x14ac:dyDescent="0.25"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>